--- a/data-raw/cmam/muac_admission.xlsx
+++ b/data-raw/cmam/muac_admission.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/GitHub/squeacr/data-raw/cmam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DD2024-1868-6646-A9DF-BBCD558B8E71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAA98A1-EAC0-4945-A318-0EAB645ACC07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="31800" windowHeight="26320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16280" yWindow="460" windowWidth="31800" windowHeight="26320" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Telkuk" sheetId="3" r:id="rId1"/>
     <sheet name="Halfa" sheetId="4" r:id="rId2"/>
     <sheet name="Kassala" sheetId="5" r:id="rId3"/>
     <sheet name="Naher Atbara" sheetId="6" r:id="rId4"/>
+    <sheet name="El Fasher" sheetId="8" r:id="rId5"/>
+    <sheet name="Tawila" sheetId="9" r:id="rId6"/>
+    <sheet name="Kutumu" sheetId="10" r:id="rId7"/>
+    <sheet name="Kalamendo" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Tahdi Osisi</t>
   </si>
@@ -103,6 +107,48 @@
   </si>
   <si>
     <t>muac</t>
+  </si>
+  <si>
+    <t>Alnhdua</t>
+  </si>
+  <si>
+    <t>sid El shohada</t>
+  </si>
+  <si>
+    <t>Abu Shock camp</t>
+  </si>
+  <si>
+    <t>Abudegeis</t>
+  </si>
+  <si>
+    <t>Golo</t>
+  </si>
+  <si>
+    <t>Rownda A</t>
+  </si>
+  <si>
+    <t>Tungor</t>
+  </si>
+  <si>
+    <t>Tardonat</t>
+  </si>
+  <si>
+    <t>Dali</t>
+  </si>
+  <si>
+    <t>Tawila Hospital</t>
+  </si>
+  <si>
+    <t>Kutum Health Centre</t>
+  </si>
+  <si>
+    <t>Kassab</t>
+  </si>
+  <si>
+    <t>Amo</t>
+  </si>
+  <si>
+    <t>Damrat</t>
   </si>
 </sst>
 </file>
@@ -463,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1D6412-2BA9-CA46-82A1-48042ED15556}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
@@ -5248,4 +5294,4453 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FBE1FFA-7FE3-7940-BEBE-FD31FE637253}">
+  <dimension ref="A1:F57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>115</v>
+      </c>
+      <c r="B2" s="7">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>114</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>28</v>
+      </c>
+      <c r="D3" s="7">
+        <v>42</v>
+      </c>
+      <c r="E3" s="7">
+        <v>39</v>
+      </c>
+      <c r="F3" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>113</v>
+      </c>
+      <c r="B4" s="7">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7">
+        <v>76</v>
+      </c>
+      <c r="D4" s="7">
+        <v>85</v>
+      </c>
+      <c r="E4" s="7">
+        <v>32</v>
+      </c>
+      <c r="F4" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>112</v>
+      </c>
+      <c r="B5" s="7">
+        <v>32</v>
+      </c>
+      <c r="C5" s="7">
+        <v>40</v>
+      </c>
+      <c r="D5" s="7">
+        <v>106</v>
+      </c>
+      <c r="E5" s="7">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>111</v>
+      </c>
+      <c r="B6" s="7">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7">
+        <v>27</v>
+      </c>
+      <c r="D6" s="7">
+        <v>54</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>110</v>
+      </c>
+      <c r="B7" s="7">
+        <v>39</v>
+      </c>
+      <c r="C7" s="7">
+        <v>24</v>
+      </c>
+      <c r="D7" s="7">
+        <v>137</v>
+      </c>
+      <c r="E7" s="7">
+        <v>17</v>
+      </c>
+      <c r="F7" s="7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>109</v>
+      </c>
+      <c r="B8" s="7">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7">
+        <v>41</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>108</v>
+      </c>
+      <c r="B9" s="7">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7">
+        <v>24</v>
+      </c>
+      <c r="D9" s="7">
+        <v>20</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>107</v>
+      </c>
+      <c r="B10" s="7">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7">
+        <v>19</v>
+      </c>
+      <c r="D10" s="7">
+        <v>21</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>106</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7">
+        <v>12</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>105</v>
+      </c>
+      <c r="B12" s="7">
+        <v>4</v>
+      </c>
+      <c r="C12" s="7">
+        <v>15</v>
+      </c>
+      <c r="D12" s="7">
+        <v>36</v>
+      </c>
+      <c r="E12" s="7">
+        <v>6</v>
+      </c>
+      <c r="F12" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>104</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7">
+        <v>15</v>
+      </c>
+      <c r="D13" s="7">
+        <v>6</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>103</v>
+      </c>
+      <c r="B14" s="7">
+        <v>4</v>
+      </c>
+      <c r="C14" s="7">
+        <v>11</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>102</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>6</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>101</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7">
+        <v>8</v>
+      </c>
+      <c r="D17" s="7">
+        <v>30</v>
+      </c>
+      <c r="E17" s="7">
+        <v>3</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>99</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7">
+        <v>10</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>98</v>
+      </c>
+      <c r="B19" s="7">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>97</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>3</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>96</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0</v>
+      </c>
+      <c r="C21" s="7">
+        <v>2</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>95</v>
+      </c>
+      <c r="B22" s="7">
+        <v>2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2</v>
+      </c>
+      <c r="D22" s="7">
+        <v>7</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>94</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0</v>
+      </c>
+      <c r="C23" s="7">
+        <v>3</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>93</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>92</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>91</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>90</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>89</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>88</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>87</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0</v>
+      </c>
+      <c r="C30" s="7">
+        <v>3</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>86</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>85</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0</v>
+      </c>
+      <c r="C32" s="7">
+        <v>3</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>84</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>83</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>82</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>81</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>80</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>79</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>78</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>77</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>76</v>
+      </c>
+      <c r="B41" s="7">
+        <v>0</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>75</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>74</v>
+      </c>
+      <c r="B43" s="7">
+        <v>0</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>73</v>
+      </c>
+      <c r="B44" s="7">
+        <v>0</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>72</v>
+      </c>
+      <c r="B45" s="7">
+        <v>0</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0</v>
+      </c>
+      <c r="E45" s="7">
+        <v>0</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>71</v>
+      </c>
+      <c r="B46" s="7">
+        <v>0</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0</v>
+      </c>
+      <c r="E46" s="7">
+        <v>0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>70</v>
+      </c>
+      <c r="B47" s="7">
+        <v>0</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0</v>
+      </c>
+      <c r="D47" s="7">
+        <v>0</v>
+      </c>
+      <c r="E47" s="7">
+        <v>0</v>
+      </c>
+      <c r="F47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>69</v>
+      </c>
+      <c r="B48" s="7">
+        <v>0</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0</v>
+      </c>
+      <c r="D48" s="7">
+        <v>0</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>68</v>
+      </c>
+      <c r="B49" s="7">
+        <v>0</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0</v>
+      </c>
+      <c r="D49" s="7">
+        <v>0</v>
+      </c>
+      <c r="E49" s="7">
+        <v>0</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>67</v>
+      </c>
+      <c r="B50" s="7">
+        <v>0</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>66</v>
+      </c>
+      <c r="B51" s="7">
+        <v>0</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>65</v>
+      </c>
+      <c r="B52" s="7">
+        <v>0</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>64</v>
+      </c>
+      <c r="B53" s="7">
+        <v>0</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>63</v>
+      </c>
+      <c r="B54" s="7">
+        <v>0</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0</v>
+      </c>
+      <c r="E54" s="7">
+        <v>0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>62</v>
+      </c>
+      <c r="B55" s="7">
+        <v>0</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0</v>
+      </c>
+      <c r="D55" s="7">
+        <v>0</v>
+      </c>
+      <c r="E55" s="7">
+        <v>0</v>
+      </c>
+      <c r="F55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>61</v>
+      </c>
+      <c r="B56" s="7">
+        <v>0</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0</v>
+      </c>
+      <c r="D56" s="7">
+        <v>0</v>
+      </c>
+      <c r="E56" s="7">
+        <v>0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>60</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0</v>
+      </c>
+      <c r="D57" s="7">
+        <v>0</v>
+      </c>
+      <c r="E57" s="7">
+        <v>0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F04B78-BD1F-6C4E-B3F9-B619734DB0C6}">
+  <dimension ref="A1:F57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>115</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>114</v>
+      </c>
+      <c r="B3" s="7">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>113</v>
+      </c>
+      <c r="B4" s="7">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>39</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>112</v>
+      </c>
+      <c r="B5" s="7">
+        <v>34</v>
+      </c>
+      <c r="C5" s="7">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>111</v>
+      </c>
+      <c r="B6" s="7">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>110</v>
+      </c>
+      <c r="B7" s="7">
+        <v>32</v>
+      </c>
+      <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>109</v>
+      </c>
+      <c r="B8" s="7">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>108</v>
+      </c>
+      <c r="B9" s="7">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>107</v>
+      </c>
+      <c r="B10" s="7">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>106</v>
+      </c>
+      <c r="B11" s="7">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>105</v>
+      </c>
+      <c r="B12" s="7">
+        <v>27</v>
+      </c>
+      <c r="C12" s="7">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>104</v>
+      </c>
+      <c r="B13" s="7">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>103</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>102</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>101</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>99</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>98</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>97</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>96</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>95</v>
+      </c>
+      <c r="B22" s="7">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>94</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>93</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>92</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>91</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>90</v>
+      </c>
+      <c r="B27" s="7">
+        <v>1</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>89</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>88</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>87</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>86</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>85</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>84</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>83</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>82</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>81</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>80</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>79</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>78</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>77</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>76</v>
+      </c>
+      <c r="B41" s="7">
+        <v>0</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>75</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>74</v>
+      </c>
+      <c r="B43" s="7">
+        <v>0</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>73</v>
+      </c>
+      <c r="B44" s="7">
+        <v>0</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>72</v>
+      </c>
+      <c r="B45" s="7">
+        <v>0</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>71</v>
+      </c>
+      <c r="B46" s="7">
+        <v>0</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>70</v>
+      </c>
+      <c r="B47" s="7">
+        <v>0</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0</v>
+      </c>
+      <c r="D47" s="7">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>69</v>
+      </c>
+      <c r="B48" s="7">
+        <v>0</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0</v>
+      </c>
+      <c r="D48" s="7">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>68</v>
+      </c>
+      <c r="B49" s="7">
+        <v>0</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0</v>
+      </c>
+      <c r="D49" s="7">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>67</v>
+      </c>
+      <c r="B50" s="7">
+        <v>0</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>66</v>
+      </c>
+      <c r="B51" s="7">
+        <v>0</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>65</v>
+      </c>
+      <c r="B52" s="7">
+        <v>0</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>64</v>
+      </c>
+      <c r="B53" s="7">
+        <v>0</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>63</v>
+      </c>
+      <c r="B54" s="7">
+        <v>0</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>62</v>
+      </c>
+      <c r="B55" s="7">
+        <v>0</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0</v>
+      </c>
+      <c r="D55" s="7">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>61</v>
+      </c>
+      <c r="B56" s="7">
+        <v>0</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0</v>
+      </c>
+      <c r="D56" s="7">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>60</v>
+      </c>
+      <c r="B57" s="7">
+        <v>0</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0</v>
+      </c>
+      <c r="D57" s="7">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4515CE8B-05A8-C645-9342-D160510F17EF}">
+  <dimension ref="A1:E57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>115</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>114</v>
+      </c>
+      <c r="B3" s="3">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>113</v>
+      </c>
+      <c r="B4" s="3">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3">
+        <v>56</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>112</v>
+      </c>
+      <c r="B5" s="3">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>111</v>
+      </c>
+      <c r="B6" s="3">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>110</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>109</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>108</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>107</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>106</v>
+      </c>
+      <c r="B11" s="3">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>105</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>104</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>103</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>102</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>101</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>99</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>98</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>97</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>96</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>95</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>94</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>93</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>92</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>91</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>90</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>89</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>88</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>87</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>86</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>85</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>84</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>83</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>82</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>81</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>80</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>79</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>78</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>77</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>76</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>75</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>74</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>73</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>72</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>71</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>70</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>69</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>68</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>67</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>66</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>65</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>64</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>63</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>62</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>61</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>60</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744536EE-EAA9-4041-8AB5-E9863CBE673E}">
+  <dimension ref="A1:F57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>115</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>114</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>113</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>112</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>111</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>110</v>
+      </c>
+      <c r="B7">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>109</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>108</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>107</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>106</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>105</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>104</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>103</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>102</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>101</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>99</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>98</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>97</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>96</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>95</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>94</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>93</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>92</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>91</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>90</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>89</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>88</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>87</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>86</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>85</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>84</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>83</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>82</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>81</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>80</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>79</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>78</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>77</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>76</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>75</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>74</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>73</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>72</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>71</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>70</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>69</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>68</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>67</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>66</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>65</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>64</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>63</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>62</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>60</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data-raw/cmam/muac_admission.xlsx
+++ b/data-raw/cmam/muac_admission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/GitHub/squeacr/data-raw/cmam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAA98A1-EAC0-4945-A318-0EAB645ACC07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFCD5D2-430F-8940-968D-4E14888931D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16280" yWindow="460" windowWidth="31800" windowHeight="26320" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Tahdi Osisi</t>
   </si>
@@ -149,6 +149,18 @@
   </si>
   <si>
     <t>Damrat</t>
+  </si>
+  <si>
+    <t>Abudeleik</t>
+  </si>
+  <si>
+    <t>Arida</t>
+  </si>
+  <si>
+    <t>Wada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eid albida </t>
   </si>
 </sst>
 </file>
@@ -8595,7 +8607,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8604,1141 +8616,1027 @@
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>18</v>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>115</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0</v>
-      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>114</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3" s="7">
-        <v>6</v>
-      </c>
+      <c r="B3" s="3">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3">
+        <v>24</v>
+      </c>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>113</v>
       </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4" s="7">
-        <v>25</v>
-      </c>
+      <c r="B4" s="3">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3">
+        <v>15</v>
+      </c>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>112</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="3">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3">
         <v>9</v>
       </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5" s="7">
-        <v>20</v>
-      </c>
+      <c r="D5" s="3">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>111</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6" s="7">
-        <v>17</v>
-      </c>
+      <c r="B6" s="3">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>110</v>
       </c>
-      <c r="B7">
-        <v>34</v>
-      </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>12</v>
-      </c>
-      <c r="E7">
+      <c r="B7" s="3">
         <v>11</v>
       </c>
-      <c r="F7" s="7">
-        <v>2</v>
-      </c>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4</v>
+      </c>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>109</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>108</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7">
-        <v>4</v>
-      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>107</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>106</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>105</v>
       </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>104</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>103</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
         <v>2</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>102</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>8</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>101</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16" s="7">
-        <v>1</v>
-      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>100</v>
       </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>6</v>
-      </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>99</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>98</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>97</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>96</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0</v>
-      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>95</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>94</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>93</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>92</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
-        <v>1</v>
-      </c>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>91</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7">
-        <v>1</v>
-      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>90</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>11</v>
-      </c>
-      <c r="E27">
-        <v>6</v>
-      </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>89</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7">
-        <v>0</v>
-      </c>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>88</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7">
-        <v>0</v>
-      </c>
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>87</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7">
-        <v>0</v>
-      </c>
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>86</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" s="7">
-        <v>1</v>
-      </c>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>85</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" s="7">
-        <v>1</v>
-      </c>
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>84</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33" s="7">
-        <v>0</v>
-      </c>
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>83</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34" s="7">
-        <v>0</v>
-      </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>82</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35" s="7">
-        <v>0</v>
-      </c>
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>81</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36" s="7">
-        <v>0</v>
-      </c>
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>80</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37" s="7">
-        <v>0</v>
-      </c>
+      <c r="B37" s="3">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>79</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38" s="7">
-        <v>0</v>
-      </c>
+      <c r="B38" s="3">
+        <v>0</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>78</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39" s="7">
-        <v>0</v>
-      </c>
+      <c r="B39" s="3">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>77</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40" s="7">
-        <v>0</v>
-      </c>
+      <c r="B40" s="3">
+        <v>0</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>76</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41" s="7">
-        <v>0</v>
-      </c>
+      <c r="B41" s="3">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>75</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42" s="7">
-        <v>0</v>
-      </c>
+      <c r="B42" s="3">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>74</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43" s="7">
-        <v>0</v>
-      </c>
+      <c r="B43" s="3">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="7"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>73</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44" s="7">
-        <v>0</v>
-      </c>
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>72</v>
       </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45" s="7">
-        <v>0</v>
-      </c>
+      <c r="B45" s="3">
+        <v>0</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="7"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>71</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46" s="7">
-        <v>0</v>
-      </c>
+      <c r="B46" s="3">
+        <v>0</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="7"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>70</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47" s="7">
-        <v>0</v>
-      </c>
+      <c r="B47" s="3">
+        <v>0</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="7"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>69</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48" s="7">
-        <v>0</v>
-      </c>
+      <c r="B48" s="3">
+        <v>0</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="7"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>68</v>
       </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49" s="7">
-        <v>0</v>
-      </c>
+      <c r="B49" s="3">
+        <v>0</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="7"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>67</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50" s="7">
-        <v>0</v>
-      </c>
+      <c r="B50" s="3">
+        <v>0</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="7"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>66</v>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51" s="7">
-        <v>0</v>
-      </c>
+      <c r="B51" s="3">
+        <v>0</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="F51" s="7"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>65</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52" s="7">
-        <v>0</v>
-      </c>
+      <c r="B52" s="3">
+        <v>0</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="7"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>64</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53" s="7">
-        <v>0</v>
-      </c>
+      <c r="B53" s="3">
+        <v>0</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="7"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>63</v>
       </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54" s="7">
-        <v>0</v>
-      </c>
+      <c r="B54" s="3">
+        <v>0</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="7"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>62</v>
       </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55" s="7">
-        <v>0</v>
-      </c>
+      <c r="B55" s="3">
+        <v>0</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="7"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>61</v>
       </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56" s="7">
-        <v>0</v>
-      </c>
+      <c r="B56" s="3">
+        <v>0</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="7"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>60</v>
       </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57" s="7">
-        <v>0</v>
-      </c>
+      <c r="B57" s="3">
+        <v>0</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data-raw/cmam/muac_admission.xlsx
+++ b/data-raw/cmam/muac_admission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/GitHub/squeacr/data-raw/cmam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFCD5D2-430F-8940-968D-4E14888931D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A55E84-2C59-4C43-8667-D6D2C454500E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16280" yWindow="460" windowWidth="31800" windowHeight="26320" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6080" yWindow="460" windowWidth="16800" windowHeight="17540" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Telkuk" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,10 @@
     <sheet name="Tawila" sheetId="9" r:id="rId6"/>
     <sheet name="Kutumu" sheetId="10" r:id="rId7"/>
     <sheet name="Kalamendo" sheetId="11" r:id="rId8"/>
+    <sheet name="Medani Alkupra" sheetId="12" r:id="rId9"/>
+    <sheet name="South Gazira" sheetId="13" r:id="rId10"/>
+    <sheet name="Sharg Algazira" sheetId="14" r:id="rId11"/>
+    <sheet name="Al Kamlin" sheetId="15" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>Tahdi Osisi</t>
   </si>
@@ -162,6 +166,48 @@
   <si>
     <t xml:space="preserve">Eid albida </t>
   </si>
+  <si>
+    <t>Abu Sunun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arkauet  </t>
+  </si>
+  <si>
+    <t>Alkreaba</t>
+  </si>
+  <si>
+    <t>Banaat</t>
+  </si>
+  <si>
+    <t>Wad Alhadad</t>
+  </si>
+  <si>
+    <t>Alhoush</t>
+  </si>
+  <si>
+    <t>Almadina Arab</t>
+  </si>
+  <si>
+    <t>Barakat</t>
+  </si>
+  <si>
+    <t>Rufaa</t>
+  </si>
+  <si>
+    <t>Alganed</t>
+  </si>
+  <si>
+    <t>Alhelalia</t>
+  </si>
+  <si>
+    <t>Tambool</t>
+  </si>
+  <si>
+    <t>Alsiraiha</t>
+  </si>
+  <si>
+    <t>Mealig</t>
+  </si>
 </sst>
 </file>
 
@@ -219,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -238,6 +284,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2356,6 +2405,2616 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7BAA133-0CD7-3149-B743-0CC9BFCD649C}">
+  <dimension ref="A1:E57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>115</v>
+      </c>
+      <c r="B2" s="3">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>114</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>113</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>112</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>111</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>110</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>9</v>
+      </c>
+      <c r="D7" s="9">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>109</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>108</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>107</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>106</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>105</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>104</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>103</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>102</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>101</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="9">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>99</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>98</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>97</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>96</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>95</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>94</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>93</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>92</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>91</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>90</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>89</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>88</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>87</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>86</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>85</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>84</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>83</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>82</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>81</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>80</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3">
+        <v>4</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>79</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>78</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>77</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>76</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>75</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>74</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>73</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>72</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>71</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>70</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
+        <v>2</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>69</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>68</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>67</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>66</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>65</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>64</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>63</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>62</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>61</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>60</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345721B6-981D-FD4A-AB7C-E316106EB68A}">
+  <dimension ref="A1:E57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>115</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>114</v>
+      </c>
+      <c r="B3" s="7">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>113</v>
+      </c>
+      <c r="B4" s="7">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>112</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>111</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>110</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>109</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>108</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>107</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>106</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>105</v>
+      </c>
+      <c r="B12" s="7">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>104</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>103</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>102</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>101</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>99</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>98</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>97</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>96</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>95</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>94</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>93</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>92</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>91</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>90</v>
+      </c>
+      <c r="B27" s="7">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>89</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>88</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>87</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>86</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>85</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>84</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>83</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>82</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>81</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>80</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>79</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>78</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>77</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>76</v>
+      </c>
+      <c r="B41" s="7">
+        <v>0</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>75</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>74</v>
+      </c>
+      <c r="B43" s="7">
+        <v>0</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>73</v>
+      </c>
+      <c r="B44" s="7">
+        <v>0</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>72</v>
+      </c>
+      <c r="B45" s="7">
+        <v>0</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>71</v>
+      </c>
+      <c r="B46" s="7">
+        <v>0</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>70</v>
+      </c>
+      <c r="B47" s="7">
+        <v>0</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>69</v>
+      </c>
+      <c r="B48" s="7">
+        <v>0</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>68</v>
+      </c>
+      <c r="B49" s="7">
+        <v>0</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>67</v>
+      </c>
+      <c r="B50" s="7">
+        <v>0</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>66</v>
+      </c>
+      <c r="B51" s="7">
+        <v>0</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>65</v>
+      </c>
+      <c r="B52" s="7">
+        <v>0</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>64</v>
+      </c>
+      <c r="B53" s="7">
+        <v>0</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>63</v>
+      </c>
+      <c r="B54" s="7">
+        <v>0</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>62</v>
+      </c>
+      <c r="B55" s="7">
+        <v>0</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>61</v>
+      </c>
+      <c r="B56" s="7">
+        <v>0</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>60</v>
+      </c>
+      <c r="B57" s="7">
+        <v>0</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BE3E1D-980E-474A-8A34-1DCF34297EAC}">
+  <dimension ref="A1:C57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>115</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>114</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>113</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>112</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>111</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>110</v>
+      </c>
+      <c r="B7" s="7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>109</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>108</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>107</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>106</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>105</v>
+      </c>
+      <c r="B12" s="7">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>104</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>103</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>102</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>101</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>99</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>98</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>97</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>96</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>95</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>94</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>93</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>92</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>91</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>90</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>89</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>88</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>87</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>86</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>85</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>84</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>83</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>82</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>81</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>80</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>79</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>78</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>77</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>76</v>
+      </c>
+      <c r="B41" s="7">
+        <v>0</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>75</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>74</v>
+      </c>
+      <c r="B43" s="7">
+        <v>0</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>73</v>
+      </c>
+      <c r="B44" s="7">
+        <v>0</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>72</v>
+      </c>
+      <c r="B45" s="7">
+        <v>0</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>71</v>
+      </c>
+      <c r="B46" s="7">
+        <v>0</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>70</v>
+      </c>
+      <c r="B47" s="7">
+        <v>0</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>69</v>
+      </c>
+      <c r="B48" s="7">
+        <v>0</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>68</v>
+      </c>
+      <c r="B49" s="7">
+        <v>0</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>67</v>
+      </c>
+      <c r="B50" s="7">
+        <v>0</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>66</v>
+      </c>
+      <c r="B51" s="7">
+        <v>0</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>65</v>
+      </c>
+      <c r="B52" s="7">
+        <v>0</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>64</v>
+      </c>
+      <c r="B53" s="7">
+        <v>0</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>63</v>
+      </c>
+      <c r="B54" s="7">
+        <v>0</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>62</v>
+      </c>
+      <c r="B55" s="7">
+        <v>0</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>61</v>
+      </c>
+      <c r="B56" s="7">
+        <v>0</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>60</v>
+      </c>
+      <c r="B57" s="7">
+        <v>0</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721D5A10-CD92-2848-85FB-03AE09086709}">
   <dimension ref="A1:D57"/>
@@ -7622,8 +10281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4515CE8B-05A8-C645-9342-D160510F17EF}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8606,7 +11265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744536EE-EAA9-4041-8AB5-E9863CBE673E}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
@@ -9641,4 +12300,988 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A48ADA7-59D3-E74C-AC21-C18187CC705D}">
+  <dimension ref="A1:E57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>115</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7">
+        <v>24</v>
+      </c>
+      <c r="E2" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>114</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>113</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>112</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>111</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>110</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>26</v>
+      </c>
+      <c r="E7" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>109</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>108</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>107</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>106</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>105</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4</v>
+      </c>
+      <c r="E12" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>104</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>103</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>102</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>101</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3</v>
+      </c>
+      <c r="E17" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>99</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>98</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>97</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>96</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>95</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>94</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>93</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>92</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>91</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>90</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>89</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>88</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>87</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>86</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>85</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>84</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>83</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>82</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>81</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>80</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>79</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>78</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>77</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>76</v>
+      </c>
+      <c r="B41" s="7">
+        <v>0</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>75</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>74</v>
+      </c>
+      <c r="B43" s="7">
+        <v>0</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>73</v>
+      </c>
+      <c r="B44" s="7">
+        <v>0</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>72</v>
+      </c>
+      <c r="B45" s="7">
+        <v>0</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>71</v>
+      </c>
+      <c r="B46" s="7">
+        <v>0</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>70</v>
+      </c>
+      <c r="B47" s="7">
+        <v>0</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>69</v>
+      </c>
+      <c r="B48" s="7">
+        <v>0</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>68</v>
+      </c>
+      <c r="B49" s="7">
+        <v>0</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>67</v>
+      </c>
+      <c r="B50" s="7">
+        <v>0</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>66</v>
+      </c>
+      <c r="B51" s="7">
+        <v>0</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>65</v>
+      </c>
+      <c r="B52" s="7">
+        <v>0</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>64</v>
+      </c>
+      <c r="B53" s="7">
+        <v>0</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>63</v>
+      </c>
+      <c r="B54" s="7">
+        <v>0</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>62</v>
+      </c>
+      <c r="B55" s="7">
+        <v>0</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>61</v>
+      </c>
+      <c r="B56" s="7">
+        <v>0</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>60</v>
+      </c>
+      <c r="B57" s="7">
+        <v>0</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data-raw/cmam/muac_admission.xlsx
+++ b/data-raw/cmam/muac_admission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/GitHub/squeacr/data-raw/cmam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A55E84-2C59-4C43-8667-D6D2C454500E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11908564-B43F-6E40-80BE-CCD2CD02F9B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6080" yWindow="460" windowWidth="16800" windowHeight="17540" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9440" yWindow="460" windowWidth="16800" windowHeight="17540" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Telkuk" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>Tahdi Osisi</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>Mealig</t>
+  </si>
+  <si>
+    <t>Elsaha Elmadrasia</t>
+  </si>
+  <si>
+    <t>Giad</t>
   </si>
 </sst>
 </file>
@@ -4375,15 +4381,22 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BE3E1D-980E-474A-8A34-1DCF34297EAC}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -4393,8 +4406,14 @@
       <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>115</v>
       </c>
@@ -4404,8 +4423,14 @@
       <c r="C2" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="3">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>114</v>
       </c>
@@ -4415,8 +4440,14 @@
       <c r="C3" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="9">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>113</v>
       </c>
@@ -4426,8 +4457,14 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="9">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>112</v>
       </c>
@@ -4437,8 +4474,11 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>111</v>
       </c>
@@ -4448,8 +4488,14 @@
       <c r="C6" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" s="9">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>110</v>
       </c>
@@ -4459,8 +4505,14 @@
       <c r="C7" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>109</v>
       </c>
@@ -4470,8 +4522,14 @@
       <c r="C8" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>108</v>
       </c>
@@ -4481,8 +4539,14 @@
       <c r="C9" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>107</v>
       </c>
@@ -4492,8 +4556,14 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>106</v>
       </c>
@@ -4503,8 +4573,14 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>105</v>
       </c>
@@ -4514,8 +4590,14 @@
       <c r="C12" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" s="9">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>104</v>
       </c>
@@ -4525,8 +4607,14 @@
       <c r="C13" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" s="9">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>103</v>
       </c>
@@ -4536,8 +4624,14 @@
       <c r="C14" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>102</v>
       </c>
@@ -4547,8 +4641,14 @@
       <c r="C15" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>101</v>
       </c>
@@ -4558,8 +4658,14 @@
       <c r="C16" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>100</v>
       </c>
@@ -4569,8 +4675,14 @@
       <c r="C17" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>99</v>
       </c>
@@ -4580,8 +4692,14 @@
       <c r="C18" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>98</v>
       </c>
@@ -4591,8 +4709,14 @@
       <c r="C19" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>97</v>
       </c>
@@ -4602,8 +4726,14 @@
       <c r="C20" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>96</v>
       </c>
@@ -4613,8 +4743,14 @@
       <c r="C21" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>95</v>
       </c>
@@ -4624,8 +4760,14 @@
       <c r="C22" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>94</v>
       </c>
@@ -4635,8 +4777,14 @@
       <c r="C23" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>93</v>
       </c>
@@ -4646,8 +4794,14 @@
       <c r="C24" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>92</v>
       </c>
@@ -4657,8 +4811,14 @@
       <c r="C25" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>91</v>
       </c>
@@ -4668,8 +4828,14 @@
       <c r="C26" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>90</v>
       </c>
@@ -4679,8 +4845,14 @@
       <c r="C27" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>89</v>
       </c>
@@ -4690,8 +4862,14 @@
       <c r="C28" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>88</v>
       </c>
@@ -4701,8 +4879,14 @@
       <c r="C29" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>87</v>
       </c>
@@ -4712,8 +4896,14 @@
       <c r="C30" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>86</v>
       </c>
@@ -4723,8 +4913,14 @@
       <c r="C31" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>85</v>
       </c>
@@ -4734,8 +4930,14 @@
       <c r="C32" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>84</v>
       </c>
@@ -4745,8 +4947,14 @@
       <c r="C33" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>83</v>
       </c>
@@ -4756,8 +4964,14 @@
       <c r="C34" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>82</v>
       </c>
@@ -4767,8 +4981,14 @@
       <c r="C35" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>81</v>
       </c>
@@ -4778,8 +4998,14 @@
       <c r="C36" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>80</v>
       </c>
@@ -4789,8 +5015,14 @@
       <c r="C37" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>79</v>
       </c>
@@ -4800,8 +5032,14 @@
       <c r="C38" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>78</v>
       </c>
@@ -4811,8 +5049,14 @@
       <c r="C39" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>77</v>
       </c>
@@ -4822,8 +5066,14 @@
       <c r="C40" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>76</v>
       </c>
@@ -4833,8 +5083,14 @@
       <c r="C41" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>75</v>
       </c>
@@ -4844,8 +5100,14 @@
       <c r="C42" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>74</v>
       </c>
@@ -4855,8 +5117,14 @@
       <c r="C43" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>73</v>
       </c>
@@ -4866,8 +5134,14 @@
       <c r="C44" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>72</v>
       </c>
@@ -4877,8 +5151,14 @@
       <c r="C45" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>71</v>
       </c>
@@ -4888,8 +5168,14 @@
       <c r="C46" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>70</v>
       </c>
@@ -4899,8 +5185,14 @@
       <c r="C47" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>69</v>
       </c>
@@ -4910,8 +5202,14 @@
       <c r="C48" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>68</v>
       </c>
@@ -4921,8 +5219,14 @@
       <c r="C49" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>67</v>
       </c>
@@ -4932,8 +5236,14 @@
       <c r="C50" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>66</v>
       </c>
@@ -4943,8 +5253,14 @@
       <c r="C51" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>65</v>
       </c>
@@ -4954,8 +5270,14 @@
       <c r="C52" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>64</v>
       </c>
@@ -4965,8 +5287,14 @@
       <c r="C53" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>63</v>
       </c>
@@ -4976,8 +5304,14 @@
       <c r="C54" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>62</v>
       </c>
@@ -4987,8 +5321,14 @@
       <c r="C55" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>61</v>
       </c>
@@ -4998,8 +5338,14 @@
       <c r="C56" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>60</v>
       </c>
@@ -5007,6 +5353,12 @@
         <v>0</v>
       </c>
       <c r="C57" s="7">
+        <v>0</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57">
         <v>0</v>
       </c>
     </row>
@@ -10281,7 +10633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4515CE8B-05A8-C645-9342-D160510F17EF}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
